--- a/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -502,16 +502,16 @@
         <v>705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6161737306355983</v>
+        <v>0.6183597299327739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01068225</v>
+        <v>0.01599698</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7362687412831243</v>
+        <v>0.7372079846582985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00656446</v>
+        <v>0.00803858</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         <v>705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3218390804597701</v>
+        <v>0.6095238095238094</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5905465481171549</v>
+        <v>0.7311715481171549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1288330581273581</v>
+        <v>0.4659907964816977</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05485856</v>
+        <v>0.08077434999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.514620380055788</v>
+        <v>0.6757692642956763</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02801324</v>
+        <v>0.06560033999999999</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1416682828950356</v>
+        <v>0.5068525475769864</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06125966</v>
+        <v>0.05698171</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5292821652719666</v>
+        <v>0.7052606345885634</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0179158</v>
+        <v>0.04114399</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>600</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1470052647520509</v>
+        <v>0.5271376820143424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04528834</v>
+        <v>0.02578968</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5244573744769875</v>
+        <v>0.7234287831241282</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02115011</v>
+        <v>0.02183461</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1850890125760227</v>
+        <v>0.5286854012801672</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05875344</v>
+        <v>0.02608413</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5329694037656905</v>
+        <v>0.7259305264993026</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03397854</v>
+        <v>0.02314157</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1448836510056964</v>
+        <v>0.5343934767093127</v>
       </c>
       <c r="H8" t="n">
-        <v>0.10425087</v>
+        <v>0.03288372</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5194669630404464</v>
+        <v>0.7173073570432357</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04544269</v>
+        <v>0.02561073</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>600</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1271716455889023</v>
+        <v>0.5328540049586999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06271467</v>
+        <v>0.03566812</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5072742329149234</v>
+        <v>0.7204171025104602</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04510313</v>
+        <v>0.03141747</v>
       </c>
     </row>
     <row r="10">
@@ -774,16 +774,16 @@
         <v>900</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1597569299736658</v>
+        <v>0.5531463916914529</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06712905</v>
+        <v>0.034697</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5323156380753139</v>
+        <v>0.7348587866108787</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01857413</v>
+        <v>0.03177338</v>
       </c>
     </row>
     <row r="11">
@@ -808,16 +808,16 @@
         <v>1500</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1788090033801815</v>
+        <v>0.5503405656763819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07653392000000001</v>
+        <v>0.03886902</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5356280509065552</v>
+        <v>0.7291187238493724</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02543758</v>
+        <v>0.0288228</v>
       </c>
     </row>
   </sheetData>
